--- a/PowerSim/plant_cost_data.xlsx
+++ b/PowerSim/plant_cost_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/prpb49_durham_ac_uk/Documents/Projects/Agent based modelling easy/PowerSim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LukaK\OneDrive - Durham University\Projects\Agent based modelling easy\PowerSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{098A91F7-BDDE-476B-B668-68F98B8169C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A97230A-7C81-41EF-A1D5-09849C762FC5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D3157-F1E8-4FA5-86C7-5B514CDB9DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{38E6F632-9074-4D9A-975A-ADC860EA0967}"/>
   </bookViews>
@@ -277,12 +277,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -779,7 +777,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -848,64 +846,6 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,6 +864,88 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -942,10 +964,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,7 +1413,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="66" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="15">
@@ -1457,7 +1475,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="99"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="25">
         <v>2030</v>
       </c>
@@ -1517,7 +1535,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="99"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="25">
         <v>2035</v>
       </c>
@@ -1577,7 +1595,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="100"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="34">
         <v>2040</v>
       </c>
@@ -1637,7 +1655,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="15">
@@ -1699,7 +1717,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="99"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="25">
         <v>2030</v>
       </c>
@@ -1759,7 +1777,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="99"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="25">
         <v>2035</v>
       </c>
@@ -1819,7 +1837,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="100"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="34">
         <v>2040</v>
       </c>
@@ -1879,7 +1897,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="15">
@@ -1941,7 +1959,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="99"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="25">
         <v>2030</v>
       </c>
@@ -2001,7 +2019,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="99"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="25">
         <v>2035</v>
       </c>
@@ -2061,7 +2079,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="100"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="34">
         <v>2040</v>
       </c>
@@ -2121,7 +2139,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="15">
@@ -2183,7 +2201,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="99"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="25">
         <v>2030</v>
       </c>
@@ -2243,7 +2261,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="99"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="25">
         <v>2035</v>
       </c>
@@ -2303,7 +2321,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="100"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="34">
         <v>2040</v>
       </c>
@@ -2363,7 +2381,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="15">
@@ -2425,7 +2443,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="99"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="25">
         <v>2030</v>
       </c>
@@ -2485,7 +2503,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="99"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="25">
         <v>2035</v>
       </c>
@@ -2545,7 +2563,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="100"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="34">
         <v>2040</v>
       </c>
@@ -2605,7 +2623,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="15">
@@ -2667,7 +2685,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="99"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="25">
         <v>2030</v>
       </c>
@@ -2727,7 +2745,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="99"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="25">
         <v>2035</v>
       </c>
@@ -2787,7 +2805,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="100"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="34">
         <v>2040</v>
       </c>
@@ -2847,7 +2865,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="15">
@@ -2909,7 +2927,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="99"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="25">
         <v>2030</v>
       </c>
@@ -2969,7 +2987,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="99"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="25">
         <v>2035</v>
       </c>
@@ -3029,7 +3047,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="100"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="34">
         <v>2040</v>
       </c>
@@ -3089,7 +3107,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="15">
@@ -3151,7 +3169,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="99"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="25">
         <v>2030</v>
       </c>
@@ -3211,7 +3229,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="99"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="25">
         <v>2035</v>
       </c>
@@ -3271,7 +3289,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="100"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="34">
         <v>2040</v>
       </c>
@@ -3331,7 +3349,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="15">
@@ -3393,7 +3411,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="99"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="25">
         <v>2030</v>
       </c>
@@ -3453,7 +3471,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="99"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="25">
         <v>2035</v>
       </c>
@@ -3513,7 +3531,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="100"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="34">
         <v>2040</v>
       </c>
@@ -3573,7 +3591,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="15">
@@ -3635,7 +3653,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="99"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="25">
         <v>2030</v>
       </c>
@@ -3695,7 +3713,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="99"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="25">
         <v>2035</v>
       </c>
@@ -3755,7 +3773,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="100"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="34">
         <v>2040</v>
       </c>
@@ -3815,7 +3833,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="15">
@@ -3877,7 +3895,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="99"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="25">
         <v>2030</v>
       </c>
@@ -3937,7 +3955,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="99"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="25">
         <v>2035</v>
       </c>
@@ -3997,7 +4015,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="100"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="34">
         <v>2040</v>
       </c>
@@ -4057,7 +4075,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="15">
@@ -4119,7 +4137,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="99"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="25">
         <v>2030</v>
       </c>
@@ -4179,7 +4197,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="99"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="25">
         <v>2035</v>
       </c>
@@ -4239,7 +4257,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="100"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="34">
         <v>2040</v>
       </c>
@@ -4299,7 +4317,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="98" t="s">
+      <c r="A51" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="15">
@@ -4361,7 +4379,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="99"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="25">
         <v>2030</v>
       </c>
@@ -4421,7 +4439,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="99"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="25">
         <v>2035</v>
       </c>
@@ -4481,7 +4499,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="100"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="34">
         <v>2040</v>
       </c>
@@ -4541,7 +4559,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="98" t="s">
+      <c r="A55" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="15">
@@ -4603,7 +4621,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="99"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="25">
         <v>2030</v>
       </c>
@@ -4663,7 +4681,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="99"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="25">
         <v>2035</v>
       </c>
@@ -4723,7 +4741,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="100"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="34">
         <v>2040</v>
       </c>
@@ -4783,7 +4801,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B59" s="15">
@@ -4845,7 +4863,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="99"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="25">
         <v>2030</v>
       </c>
@@ -4905,7 +4923,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="99"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="25">
         <v>2035</v>
       </c>
@@ -4965,7 +4983,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="100"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="34">
         <v>2040</v>
       </c>
@@ -5025,7 +5043,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="98" t="s">
+      <c r="A63" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B63" s="15">
@@ -5087,7 +5105,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="99"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="25">
         <v>2030</v>
       </c>
@@ -5147,7 +5165,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="99"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="25">
         <v>2035</v>
       </c>
@@ -5207,7 +5225,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="100"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="34">
         <v>2040</v>
       </c>
@@ -5267,7 +5285,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B67" s="15">
@@ -5329,7 +5347,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="99"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="25">
         <v>2030</v>
       </c>
@@ -5389,7 +5407,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="99"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="25">
         <v>2035</v>
       </c>
@@ -5449,7 +5467,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="100"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="34">
         <v>2040</v>
       </c>
@@ -5509,7 +5527,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B71" s="15">
@@ -5571,7 +5589,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="99"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="25">
         <v>2030</v>
       </c>
@@ -5631,7 +5649,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="99"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="25">
         <v>2035</v>
       </c>
@@ -5691,7 +5709,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="100"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="34">
         <v>2040</v>
       </c>
@@ -5751,7 +5769,7 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="98" t="s">
+      <c r="A75" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="15">
@@ -5813,7 +5831,7 @@
       </c>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="99"/>
+      <c r="A76" s="67"/>
       <c r="B76" s="25">
         <v>2030</v>
       </c>
@@ -5873,7 +5891,7 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="99"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="25">
         <v>2035</v>
       </c>
@@ -5933,7 +5951,7 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="100"/>
+      <c r="A78" s="68"/>
       <c r="B78" s="34">
         <v>2040</v>
       </c>
@@ -5993,7 +6011,7 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="98" t="s">
+      <c r="A79" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B79" s="15">
@@ -6055,7 +6073,7 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="99"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="25">
         <v>2030</v>
       </c>
@@ -6115,7 +6133,7 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="99"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="25">
         <v>2035</v>
       </c>
@@ -6175,7 +6193,7 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="100"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="34">
         <v>2040</v>
       </c>
@@ -6235,7 +6253,7 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="98" t="s">
+      <c r="A83" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="15">
@@ -6297,7 +6315,7 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="99"/>
+      <c r="A84" s="67"/>
       <c r="B84" s="25">
         <v>2030</v>
       </c>
@@ -6357,7 +6375,7 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="99"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="25">
         <v>2035</v>
       </c>
@@ -6417,7 +6435,7 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="100"/>
+      <c r="A86" s="68"/>
       <c r="B86" s="34">
         <v>2040</v>
       </c>
@@ -6477,7 +6495,7 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="98" t="s">
+      <c r="A87" s="66" t="s">
         <v>63</v>
       </c>
       <c r="B87" s="15">
@@ -6539,7 +6557,7 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="99"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="25">
         <v>2030</v>
       </c>
@@ -6599,7 +6617,7 @@
       </c>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="99"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="25">
         <v>2035</v>
       </c>
@@ -6659,7 +6677,7 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="100"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="34">
         <v>2040</v>
       </c>
@@ -6719,7 +6737,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="98" t="s">
+      <c r="A91" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B91" s="15">
@@ -6773,7 +6791,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="99"/>
+      <c r="A92" s="67"/>
       <c r="B92" s="25">
         <v>2030</v>
       </c>
@@ -6825,7 +6843,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="99"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="25">
         <v>2035</v>
       </c>
@@ -6877,7 +6895,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="100"/>
+      <c r="A94" s="68"/>
       <c r="B94" s="34">
         <v>2040</v>
       </c>
@@ -6929,7 +6947,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="98" t="s">
+      <c r="A95" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15">
@@ -6991,7 +7009,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="99"/>
+      <c r="A96" s="67"/>
       <c r="B96" s="25">
         <v>2030</v>
       </c>
@@ -7051,7 +7069,7 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="99"/>
+      <c r="A97" s="67"/>
       <c r="B97" s="25">
         <v>2035</v>
       </c>
@@ -7111,7 +7129,7 @@
       </c>
     </row>
     <row r="98" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="100"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="34">
         <v>2040</v>
       </c>
@@ -7171,7 +7189,7 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="98" t="s">
+      <c r="A99" s="66" t="s">
         <v>34</v>
       </c>
       <c r="B99" s="15">
@@ -7233,7 +7251,7 @@
       </c>
     </row>
     <row r="100" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="99"/>
+      <c r="A100" s="67"/>
       <c r="B100" s="25">
         <v>2030</v>
       </c>
@@ -7293,7 +7311,7 @@
       </c>
     </row>
     <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="99"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="25">
         <v>2035</v>
       </c>
@@ -7353,7 +7371,7 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="100"/>
+      <c r="A102" s="68"/>
       <c r="B102" s="34">
         <v>2040</v>
       </c>
@@ -7413,7 +7431,7 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="98" t="s">
+      <c r="A103" s="66" t="s">
         <v>35</v>
       </c>
       <c r="B103" s="15">
@@ -7475,7 +7493,7 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="99"/>
+      <c r="A104" s="67"/>
       <c r="B104" s="25">
         <v>2030</v>
       </c>
@@ -7535,7 +7553,7 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="99"/>
+      <c r="A105" s="67"/>
       <c r="B105" s="25">
         <v>2035</v>
       </c>
@@ -7595,7 +7613,7 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="100"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="34">
         <v>2040</v>
       </c>
@@ -7655,7 +7673,7 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="98" t="s">
+      <c r="A107" s="66" t="s">
         <v>36</v>
       </c>
       <c r="B107" s="15">
@@ -7717,7 +7735,7 @@
       </c>
     </row>
     <row r="108" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="99"/>
+      <c r="A108" s="67"/>
       <c r="B108" s="25">
         <v>2030</v>
       </c>
@@ -7777,7 +7795,7 @@
       </c>
     </row>
     <row r="109" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="99"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="25">
         <v>2035</v>
       </c>
@@ -7837,7 +7855,7 @@
       </c>
     </row>
     <row r="110" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="100"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="34">
         <v>2040</v>
       </c>
@@ -7897,7 +7915,7 @@
       </c>
     </row>
     <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="98" t="s">
+      <c r="A111" s="66" t="s">
         <v>37</v>
       </c>
       <c r="B111" s="15">
@@ -7959,7 +7977,7 @@
       </c>
     </row>
     <row r="112" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="99"/>
+      <c r="A112" s="67"/>
       <c r="B112" s="25">
         <v>2030</v>
       </c>
@@ -8019,7 +8037,7 @@
       </c>
     </row>
     <row r="113" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="99"/>
+      <c r="A113" s="67"/>
       <c r="B113" s="25">
         <v>2035</v>
       </c>
@@ -8079,7 +8097,7 @@
       </c>
     </row>
     <row r="114" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="100"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="34">
         <v>2040</v>
       </c>
@@ -8139,7 +8157,7 @@
       </c>
     </row>
     <row r="115" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="98" t="s">
+      <c r="A115" s="66" t="s">
         <v>38</v>
       </c>
       <c r="B115" s="15">
@@ -8201,7 +8219,7 @@
       </c>
     </row>
     <row r="116" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="99"/>
+      <c r="A116" s="67"/>
       <c r="B116" s="25">
         <v>2030</v>
       </c>
@@ -8261,7 +8279,7 @@
       </c>
     </row>
     <row r="117" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="99"/>
+      <c r="A117" s="67"/>
       <c r="B117" s="25">
         <v>2035</v>
       </c>
@@ -8321,7 +8339,7 @@
       </c>
     </row>
     <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="100"/>
+      <c r="A118" s="68"/>
       <c r="B118" s="34">
         <v>2040</v>
       </c>
@@ -8381,7 +8399,7 @@
       </c>
     </row>
     <row r="119" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="98" t="s">
+      <c r="A119" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B119" s="15">
@@ -8443,7 +8461,7 @@
       </c>
     </row>
     <row r="120" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="99"/>
+      <c r="A120" s="67"/>
       <c r="B120" s="25">
         <v>2030</v>
       </c>
@@ -8503,7 +8521,7 @@
       </c>
     </row>
     <row r="121" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="99"/>
+      <c r="A121" s="67"/>
       <c r="B121" s="25">
         <v>2035</v>
       </c>
@@ -8563,7 +8581,7 @@
       </c>
     </row>
     <row r="122" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="100"/>
+      <c r="A122" s="68"/>
       <c r="B122" s="34">
         <v>2040</v>
       </c>
@@ -8623,7 +8641,7 @@
       </c>
     </row>
     <row r="123" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="98" t="s">
+      <c r="A123" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B123" s="15">
@@ -8685,7 +8703,7 @@
       </c>
     </row>
     <row r="124" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="99"/>
+      <c r="A124" s="67"/>
       <c r="B124" s="25">
         <v>2030</v>
       </c>
@@ -8745,7 +8763,7 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="99"/>
+      <c r="A125" s="67"/>
       <c r="B125" s="25">
         <v>2035</v>
       </c>
@@ -8805,7 +8823,7 @@
       </c>
     </row>
     <row r="126" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="100"/>
+      <c r="A126" s="68"/>
       <c r="B126" s="34">
         <v>2040</v>
       </c>
@@ -8865,7 +8883,7 @@
       </c>
     </row>
     <row r="127" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="98" t="s">
+      <c r="A127" s="66" t="s">
         <v>41</v>
       </c>
       <c r="B127" s="15">
@@ -8927,7 +8945,7 @@
       </c>
     </row>
     <row r="128" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="99"/>
+      <c r="A128" s="67"/>
       <c r="B128" s="25">
         <v>2030</v>
       </c>
@@ -8987,7 +9005,7 @@
       </c>
     </row>
     <row r="129" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="99"/>
+      <c r="A129" s="67"/>
       <c r="B129" s="25">
         <v>2035</v>
       </c>
@@ -9047,7 +9065,7 @@
       </c>
     </row>
     <row r="130" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="100"/>
+      <c r="A130" s="68"/>
       <c r="B130" s="34">
         <v>2040</v>
       </c>
@@ -9107,7 +9125,7 @@
       </c>
     </row>
     <row r="131" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="98" t="s">
+      <c r="A131" s="66" t="s">
         <v>42</v>
       </c>
       <c r="B131" s="15">
@@ -9159,7 +9177,7 @@
       </c>
     </row>
     <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="99"/>
+      <c r="A132" s="67"/>
       <c r="B132" s="25">
         <v>2030</v>
       </c>
@@ -9209,7 +9227,7 @@
       </c>
     </row>
     <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="99"/>
+      <c r="A133" s="67"/>
       <c r="B133" s="25">
         <v>2035</v>
       </c>
@@ -9259,7 +9277,7 @@
       </c>
     </row>
     <row r="134" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="100"/>
+      <c r="A134" s="68"/>
       <c r="B134" s="34">
         <v>2040</v>
       </c>
@@ -9309,7 +9327,7 @@
       </c>
     </row>
     <row r="135" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="98" t="s">
+      <c r="A135" s="66" t="s">
         <v>43</v>
       </c>
       <c r="B135" s="15">
@@ -9365,7 +9383,7 @@
       </c>
     </row>
     <row r="136" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="99"/>
+      <c r="A136" s="67"/>
       <c r="B136" s="25">
         <v>2030</v>
       </c>
@@ -9419,7 +9437,7 @@
       </c>
     </row>
     <row r="137" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="99"/>
+      <c r="A137" s="67"/>
       <c r="B137" s="25">
         <v>2035</v>
       </c>
@@ -9473,7 +9491,7 @@
       </c>
     </row>
     <row r="138" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="100"/>
+      <c r="A138" s="68"/>
       <c r="B138" s="34">
         <v>2040</v>
       </c>
@@ -9527,7 +9545,7 @@
       </c>
     </row>
     <row r="139" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="98" t="s">
+      <c r="A139" s="66" t="s">
         <v>44</v>
       </c>
       <c r="B139" s="15">
@@ -9589,7 +9607,7 @@
       </c>
     </row>
     <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="99"/>
+      <c r="A140" s="67"/>
       <c r="B140" s="25">
         <v>2030</v>
       </c>
@@ -9649,7 +9667,7 @@
       </c>
     </row>
     <row r="141" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="99"/>
+      <c r="A141" s="67"/>
       <c r="B141" s="25">
         <v>2035</v>
       </c>
@@ -9709,7 +9727,7 @@
       </c>
     </row>
     <row r="142" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="100"/>
+      <c r="A142" s="68"/>
       <c r="B142" s="34">
         <v>2040</v>
       </c>
@@ -9769,7 +9787,7 @@
       </c>
     </row>
     <row r="143" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="101" t="s">
+      <c r="A143" s="69" t="s">
         <v>45</v>
       </c>
       <c r="B143" s="15">
@@ -9831,7 +9849,7 @@
       </c>
     </row>
     <row r="144" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="102"/>
+      <c r="A144" s="70"/>
       <c r="B144" s="25">
         <v>2030</v>
       </c>
@@ -9891,7 +9909,7 @@
       </c>
     </row>
     <row r="145" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="102"/>
+      <c r="A145" s="70"/>
       <c r="B145" s="25">
         <v>2035</v>
       </c>
@@ -9917,7 +9935,7 @@
       <c r="T145" s="50"/>
     </row>
     <row r="146" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="103"/>
+      <c r="A146" s="71"/>
       <c r="B146" s="34">
         <v>2040</v>
       </c>
@@ -9943,7 +9961,7 @@
       <c r="T146" s="53"/>
     </row>
     <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="98" t="s">
+      <c r="A147" s="66" t="s">
         <v>46</v>
       </c>
       <c r="B147" s="15">
@@ -9971,7 +9989,7 @@
       <c r="T147" s="54"/>
     </row>
     <row r="148" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="99"/>
+      <c r="A148" s="67"/>
       <c r="B148" s="25">
         <v>2030</v>
       </c>
@@ -9997,7 +10015,7 @@
       <c r="T148" s="50"/>
     </row>
     <row r="149" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="99"/>
+      <c r="A149" s="67"/>
       <c r="B149" s="25">
         <v>2035</v>
       </c>
@@ -10057,7 +10075,7 @@
       </c>
     </row>
     <row r="150" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="100"/>
+      <c r="A150" s="68"/>
       <c r="B150" s="34">
         <v>2040</v>
       </c>
@@ -10117,7 +10135,7 @@
       </c>
     </row>
     <row r="151" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="98" t="s">
+      <c r="A151" s="66" t="s">
         <v>47</v>
       </c>
       <c r="B151" s="15">
@@ -10179,7 +10197,7 @@
       </c>
     </row>
     <row r="152" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="99"/>
+      <c r="A152" s="67"/>
       <c r="B152" s="25">
         <v>2030</v>
       </c>
@@ -10239,7 +10257,7 @@
       </c>
     </row>
     <row r="153" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="99"/>
+      <c r="A153" s="67"/>
       <c r="B153" s="25">
         <v>2035</v>
       </c>
@@ -10265,7 +10283,7 @@
       <c r="T153" s="50"/>
     </row>
     <row r="154" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="100"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="34">
         <v>2040</v>
       </c>
@@ -10291,7 +10309,7 @@
       <c r="T154" s="53"/>
     </row>
     <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="98" t="s">
+      <c r="A155" s="66" t="s">
         <v>48</v>
       </c>
       <c r="B155" s="15">
@@ -10319,7 +10337,7 @@
       <c r="T155" s="54"/>
     </row>
     <row r="156" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="99"/>
+      <c r="A156" s="67"/>
       <c r="B156" s="25">
         <v>2030</v>
       </c>
@@ -10345,7 +10363,7 @@
       <c r="T156" s="50"/>
     </row>
     <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="99"/>
+      <c r="A157" s="67"/>
       <c r="B157" s="25">
         <v>2035</v>
       </c>
@@ -10405,7 +10423,7 @@
       </c>
     </row>
     <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="100"/>
+      <c r="A158" s="68"/>
       <c r="B158" s="34">
         <v>2040</v>
       </c>
@@ -10516,1681 +10534,1682 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC75CF-1343-419C-8E74-49B760A17506}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.08984375" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1796875" customWidth="1"/>
-    <col min="19" max="19" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.08984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1796875" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.08984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.08984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="78" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6328125" style="78" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" style="78" customWidth="1"/>
+    <col min="19" max="19" width="8.54296875" style="78" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.1796875" style="78" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.90625" style="78" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="77" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="80">
         <v>2025</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="81">
         <v>1200</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="17">
         <v>0.93</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="82">
         <v>0.53</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="17">
         <v>25</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="81">
         <v>10</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="81">
         <v>10</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="81">
         <v>20</v>
       </c>
-      <c r="J2" s="18">
-        <v>2</v>
-      </c>
-      <c r="K2" s="19">
+      <c r="J2" s="17">
+        <v>2</v>
+      </c>
+      <c r="K2" s="83">
         <v>400</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="84">
         <v>600</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="85">
         <v>700</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="82">
         <v>3</v>
       </c>
-      <c r="O2" s="60">
+      <c r="O2" s="82">
         <f>N2+J2</f>
         <v>5</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="81">
         <v>16100</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="86">
         <v>13100</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="81">
         <v>4</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="86">
         <v>2200</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="81">
         <v>3500</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="88">
         <v>2030</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="89">
         <v>1200</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="27">
         <v>0.93</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="90">
         <v>0.53</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="27">
         <v>25</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="89">
         <v>10</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="89">
         <v>10</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="89">
         <v>20</v>
       </c>
-      <c r="J3" s="28">
-        <v>2</v>
-      </c>
-      <c r="K3" s="29">
+      <c r="J3" s="27">
+        <v>2</v>
+      </c>
+      <c r="K3" s="91">
         <v>400</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="92">
         <v>600</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="93">
         <v>700</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="89">
         <v>3</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="82">
         <f>N3+J3</f>
         <v>5</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="89">
         <v>16100</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="94">
         <v>13100</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="89">
         <v>4</v>
       </c>
-      <c r="S3" s="32">
+      <c r="S3" s="94">
         <v>2200</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="89">
         <v>3500</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U3" s="95">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="88">
         <v>2035</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="89">
         <v>1200</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="27">
         <v>0.93</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="90">
         <v>0.53</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="27">
         <v>25</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="89">
         <v>10</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="89">
         <v>10</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="89">
         <v>20</v>
       </c>
-      <c r="J4" s="28">
-        <v>2</v>
-      </c>
-      <c r="K4" s="29">
+      <c r="J4" s="27">
+        <v>2</v>
+      </c>
+      <c r="K4" s="91">
         <v>400</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="92">
         <v>600</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="93">
         <v>700</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="89">
         <v>3</v>
       </c>
-      <c r="O4" s="60">
+      <c r="O4" s="82">
         <f t="shared" ref="O4:O21" si="0">N4+J4</f>
         <v>5</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="89">
         <v>16100</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="94">
         <v>13100</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="89">
         <v>4</v>
       </c>
-      <c r="S4" s="32">
+      <c r="S4" s="94">
         <v>2200</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="89">
         <v>3500</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="95">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="96">
         <v>2040</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="97">
         <v>1200</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="36">
         <v>0.93</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="98">
         <v>0.53</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="36">
         <v>25</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="99">
         <v>10</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="97">
         <v>10</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="97">
         <v>20</v>
       </c>
-      <c r="J5" s="38">
-        <v>2</v>
-      </c>
-      <c r="K5" s="39">
+      <c r="J5" s="36">
+        <v>2</v>
+      </c>
+      <c r="K5" s="100">
         <v>400</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="101">
         <v>600</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="102">
         <v>700</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="97">
         <v>3</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="82">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="97">
         <v>16100</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="103">
         <v>13100</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="97">
         <v>4</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="103">
         <v>2200</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="97">
         <v>3500</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="104">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="80">
         <v>2025</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="81">
         <v>51</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="17">
         <v>0.34</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="82">
         <v>1</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="17">
         <v>25</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="81">
         <v>40</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="81">
         <v>120</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="81">
         <v>200</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>4</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="83">
         <v>900</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="84">
         <v>1000</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="85">
         <v>1100</v>
       </c>
-      <c r="N6" s="22">
-        <v>2</v>
-      </c>
-      <c r="O6" s="60">
+      <c r="N6" s="82">
+        <v>2</v>
+      </c>
+      <c r="O6" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="81">
         <v>3500</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="86">
         <v>23500</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="81">
         <v>6</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="86">
         <v>1600</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="81">
         <v>4100</v>
       </c>
-      <c r="U6" s="24">
+      <c r="U6" s="87">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="88">
         <v>2030</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="89">
         <v>51</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="27">
         <v>0.34</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="82">
         <v>1</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="27">
         <v>25</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="89">
         <v>40</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="89">
         <v>120</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="89">
         <v>200</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>4</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="91">
         <v>800</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="92">
         <v>1000</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="93">
         <v>1100</v>
       </c>
-      <c r="N7" s="26">
-        <v>2</v>
-      </c>
-      <c r="O7" s="60">
+      <c r="N7" s="89">
+        <v>2</v>
+      </c>
+      <c r="O7" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="89">
         <v>3500</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="94">
         <v>23500</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="89">
         <v>6</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="94">
         <v>1600</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="89">
         <v>4400</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="95">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="88">
         <v>2035</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="89">
         <v>51</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="27">
         <v>0.34</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="82">
         <v>1</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="27">
         <v>25</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="89">
         <v>40</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="89">
         <v>120</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="89">
         <v>200</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>4</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="91">
         <v>800</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="92">
         <v>900</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="93">
         <v>1100</v>
       </c>
-      <c r="N8" s="26">
-        <v>2</v>
-      </c>
-      <c r="O8" s="60">
+      <c r="N8" s="89">
+        <v>2</v>
+      </c>
+      <c r="O8" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="89">
         <v>3500</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="94">
         <v>23500</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="89">
         <v>6</v>
       </c>
-      <c r="S8" s="32">
+      <c r="S8" s="94">
         <v>1600</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="89">
         <v>4800</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="95">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="96">
         <v>2040</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="97">
         <v>51</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="36">
         <v>0.34</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="82">
         <v>1</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="36">
         <v>25</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="99">
         <v>40</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="97">
         <v>120</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="97">
         <v>200</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="36">
         <v>4</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="100">
         <v>800</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="101">
         <v>900</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="102">
         <v>1000</v>
       </c>
-      <c r="N9" s="35">
-        <v>2</v>
-      </c>
-      <c r="O9" s="60">
+      <c r="N9" s="97">
+        <v>2</v>
+      </c>
+      <c r="O9" s="82">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="97">
         <v>3500</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="103">
         <v>23500</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="97">
         <v>6</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="103">
         <v>1600</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="97">
         <v>5100</v>
       </c>
-      <c r="U9" s="44">
+      <c r="U9" s="104">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="80">
         <v>2025</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="81">
         <v>1000</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="17">
         <v>0.51</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="82">
         <v>1</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="17">
         <v>30</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="81">
         <v>60</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="81">
         <v>130</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="81">
         <v>200</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>5</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="83">
         <v>1300</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="84">
         <v>1500</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="85">
         <v>1700</v>
       </c>
-      <c r="N10" s="22">
-        <v>2</v>
-      </c>
-      <c r="O10" s="60">
+      <c r="N10" s="82">
+        <v>2</v>
+      </c>
+      <c r="O10" s="82">
         <f>N10+J10</f>
         <v>7</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="81">
         <v>344800</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="86">
         <v>36300</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="81">
         <v>3</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="86">
         <v>2800</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="81">
         <v>56800</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="87">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="88">
         <v>2030</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="89">
         <v>1000</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="27">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="82">
         <v>1</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="27">
         <v>30</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="89">
         <v>60</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="89">
         <v>130</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="89">
         <v>200</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <v>5</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="91">
         <v>1100</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="92">
         <v>1300</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="93">
         <v>1400</v>
       </c>
-      <c r="N11" s="26">
-        <v>2</v>
-      </c>
-      <c r="O11" s="60">
+      <c r="N11" s="89">
+        <v>2</v>
+      </c>
+      <c r="O11" s="82">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="89">
         <v>344800</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="94">
         <v>28000</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="89">
         <v>3</v>
       </c>
-      <c r="S11" s="32">
+      <c r="S11" s="94">
         <v>2700</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="89">
         <v>61800</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="95">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="88">
         <v>2035</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="89">
         <v>1000</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="27">
         <v>0.6</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="82">
         <v>1</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="27">
         <v>30</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="89">
         <v>60</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="89">
         <v>130</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="89">
         <v>200</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>5</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="91">
         <v>1000</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="92">
         <v>1100</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="93">
         <v>1300</v>
       </c>
-      <c r="N12" s="26">
-        <v>2</v>
-      </c>
-      <c r="O12" s="60">
+      <c r="N12" s="89">
+        <v>2</v>
+      </c>
+      <c r="O12" s="82">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="89">
         <v>344800</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="94">
         <v>24500</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="89">
         <v>3</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="94">
         <v>2700</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="89">
         <v>65100</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="95">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="96">
         <v>2040</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="97">
         <v>1000</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="36">
         <v>0.63</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="82">
         <v>1</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="36">
         <v>30</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="99">
         <v>60</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="97">
         <v>130</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="97">
         <v>200</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>5</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="100">
         <v>900</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="101">
         <v>1100</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="102">
         <v>1200</v>
       </c>
-      <c r="N13" s="35">
-        <v>2</v>
-      </c>
-      <c r="O13" s="60">
+      <c r="N13" s="97">
+        <v>2</v>
+      </c>
+      <c r="O13" s="82">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="97">
         <v>344800</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="103">
         <v>22500</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="97">
         <v>3</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="103">
         <v>2700</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="97">
         <v>68900</v>
       </c>
-      <c r="U13" s="44">
+      <c r="U13" s="104">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="80">
         <v>2025</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="81">
         <v>16</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="17">
         <v>0.11</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="82">
         <v>1</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="17">
         <v>35</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="81">
         <v>10</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="81">
         <v>50</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="81">
         <v>120</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>1</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="83">
         <v>400</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="84">
         <v>400</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="85">
         <v>500</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="82">
         <v>0</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="82">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="81">
         <v>1300</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="86">
         <v>6700</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="81">
         <v>0</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="86">
         <v>1900</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="81">
         <v>1600</v>
       </c>
-      <c r="U14" s="24">
+      <c r="U14" s="87">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="88">
         <v>2030</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="89">
         <v>16</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="27">
         <v>0.11</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="82">
         <v>1</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="27">
         <v>35</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="89">
         <v>10</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="89">
         <v>50</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="89">
         <v>120</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <v>1</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="91">
         <v>300</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="92">
         <v>400</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="93">
         <v>400</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="89">
         <v>0</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="82">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="89">
         <v>1300</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="94">
         <v>6400</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="89">
         <v>0</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="94">
         <v>1800</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="89">
         <v>1600</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="95">
         <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="88">
         <v>2035</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="89">
         <v>16</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="27">
         <v>0.11</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="82">
         <v>1</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="27">
         <v>35</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="89">
         <v>10</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="89">
         <v>50</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="89">
         <v>120</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="27">
         <v>1</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="91">
         <v>300</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="92">
         <v>300</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="93">
         <v>300</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="89">
         <v>0</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="82">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="89">
         <v>1300</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="94">
         <v>6000</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="89">
         <v>0</v>
       </c>
-      <c r="S16" s="32">
+      <c r="S16" s="94">
         <v>1700</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="89">
         <v>1600</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="95">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="96">
         <v>2040</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="97">
         <v>16</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="36">
         <v>0.11</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="82">
         <v>1</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="36">
         <v>35</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="99">
         <v>10</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="97">
         <v>50</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="97">
         <v>120</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="36">
         <v>1</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="100">
         <v>200</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="101">
         <v>300</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="102">
         <v>300</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="97">
         <v>0</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="82">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="97">
         <v>1300</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="103">
         <v>5700</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="97">
         <v>0</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="103">
         <v>1600</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="97">
         <v>1600</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="104">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="80">
         <v>2025</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="81">
         <v>516</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="17">
         <v>0.35</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="82">
         <v>1</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="17">
         <v>41</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="81">
         <v>40</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="81">
         <v>60</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="81">
         <v>320</v>
       </c>
-      <c r="J18" s="18">
-        <v>2</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="J18" s="17">
+        <v>2</v>
+      </c>
+      <c r="K18" s="83">
         <v>1700</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="84">
         <v>3200</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="85">
         <v>3300</v>
       </c>
-      <c r="N18" s="22">
-        <v>2</v>
-      </c>
-      <c r="O18" s="60">
+      <c r="N18" s="82">
+        <v>2</v>
+      </c>
+      <c r="O18" s="82">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="81">
         <v>0</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="86">
         <v>48100</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="81">
         <v>6</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="86">
         <v>0</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="81">
         <v>0</v>
       </c>
-      <c r="U18" s="24">
+      <c r="U18" s="87">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="88">
         <v>2030</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="81">
         <v>516</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="27">
         <v>0.35</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="82">
         <v>1</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="27">
         <v>41</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="89">
         <v>40</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="89">
         <v>60</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="89">
         <v>320</v>
       </c>
-      <c r="J19" s="28">
-        <v>2</v>
-      </c>
-      <c r="K19" s="29">
+      <c r="J19" s="27">
+        <v>2</v>
+      </c>
+      <c r="K19" s="91">
         <v>1700</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="92">
         <v>3200</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="93">
         <v>3300</v>
       </c>
-      <c r="N19" s="26">
-        <v>2</v>
-      </c>
-      <c r="O19" s="60">
+      <c r="N19" s="89">
+        <v>2</v>
+      </c>
+      <c r="O19" s="82">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="81">
         <v>0</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="94">
         <v>48100</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="89">
         <v>6</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="86">
         <v>0</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="81">
         <v>0</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="95">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="88">
         <v>2035</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="81">
         <v>516</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="27">
         <v>0.35</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="82">
         <v>1</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="27">
         <v>41</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="89">
         <v>40</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="89">
         <v>60</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="89">
         <v>320</v>
       </c>
-      <c r="J20" s="28">
-        <v>2</v>
-      </c>
-      <c r="K20" s="29">
+      <c r="J20" s="27">
+        <v>2</v>
+      </c>
+      <c r="K20" s="91">
         <v>1700</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="92">
         <v>3200</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="93">
         <v>3300</v>
       </c>
-      <c r="N20" s="26">
-        <v>2</v>
-      </c>
-      <c r="O20" s="60">
+      <c r="N20" s="89">
+        <v>2</v>
+      </c>
+      <c r="O20" s="82">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="81">
         <v>0</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="94">
         <v>48100</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="89">
         <v>6</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="86">
         <v>0</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="81">
         <v>0</v>
       </c>
-      <c r="U20" s="33">
+      <c r="U20" s="95">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="96">
         <v>2040</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="81">
         <v>516</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="36">
         <v>0.35</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="82">
         <v>1</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="36">
         <v>41</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="99">
         <v>40</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="97">
         <v>60</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="97">
         <v>320</v>
       </c>
-      <c r="J21" s="38">
-        <v>2</v>
-      </c>
-      <c r="K21" s="39">
+      <c r="J21" s="36">
+        <v>2</v>
+      </c>
+      <c r="K21" s="100">
         <v>1700</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="101">
         <v>3200</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="102">
         <v>3300</v>
       </c>
-      <c r="N21" s="35">
-        <v>2</v>
-      </c>
-      <c r="O21" s="60">
+      <c r="N21" s="97">
+        <v>2</v>
+      </c>
+      <c r="O21" s="82">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="81">
         <v>0</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="103">
         <v>48100</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="97">
         <v>6</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="86">
         <v>0</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="81">
         <v>0</v>
       </c>
-      <c r="U21" s="44">
+      <c r="U21" s="104">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="106">
         <v>2025</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="107">
         <v>3300</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="108">
         <v>0.90226688899316898</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="109">
         <v>1</v>
       </c>
-      <c r="F22" s="83">
+      <c r="F22" s="110">
         <v>60</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="111">
         <v>110</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="112">
         <v>240</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="113">
         <v>640</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="114">
         <v>5</v>
       </c>
-      <c r="K22" s="71">
+      <c r="K22" s="115">
         <v>3700</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="115">
         <v>4100</v>
       </c>
-      <c r="M22" s="71">
+      <c r="M22" s="115">
         <v>5100</v>
       </c>
-      <c r="N22" s="68">
+      <c r="N22" s="113">
         <v>8</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="82">
         <f>N22+J22</f>
         <v>13</v>
       </c>
-      <c r="P22" s="69">
+      <c r="P22" s="112">
         <v>11500</v>
       </c>
-      <c r="Q22" s="72">
+      <c r="Q22" s="116">
         <v>72900</v>
       </c>
-      <c r="R22" s="68">
+      <c r="R22" s="113">
         <v>5</v>
       </c>
-      <c r="S22" s="73">
+      <c r="S22" s="117">
         <v>10000</v>
       </c>
-      <c r="T22" s="74">
+      <c r="T22" s="118">
         <v>500</v>
       </c>
-      <c r="U22" s="85">
+      <c r="U22" s="114">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="87" t="s">
+    <row r="23" spans="1:21" s="125" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="120">
         <v>2025</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="121">
         <v>1200</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="120">
         <v>0.93</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="121">
         <v>0.53</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="120">
         <v>25</v>
       </c>
-      <c r="G23" s="89">
+      <c r="G23" s="121">
         <v>10</v>
       </c>
-      <c r="H23" s="89">
+      <c r="H23" s="121">
         <v>10</v>
       </c>
-      <c r="I23" s="89">
+      <c r="I23" s="121">
         <v>20</v>
       </c>
-      <c r="J23" s="93">
-        <v>2</v>
-      </c>
-      <c r="K23" s="94">
+      <c r="J23" s="120">
+        <v>2</v>
+      </c>
+      <c r="K23" s="122">
         <v>400</v>
       </c>
-      <c r="L23" s="89">
+      <c r="L23" s="121">
         <v>600</v>
       </c>
-      <c r="M23" s="95">
+      <c r="M23" s="123">
         <v>700</v>
       </c>
-      <c r="N23" s="89">
+      <c r="N23" s="121">
         <v>3</v>
       </c>
-      <c r="O23" s="91">
+      <c r="O23" s="121">
         <f>N23+J23</f>
         <v>5</v>
       </c>
-      <c r="P23" s="89">
+      <c r="P23" s="121">
         <v>16100</v>
       </c>
-      <c r="Q23" s="93">
+      <c r="Q23" s="120">
         <v>13100</v>
       </c>
-      <c r="R23" s="89">
+      <c r="R23" s="121">
         <v>4</v>
       </c>
-      <c r="S23" s="93">
+      <c r="S23" s="120">
         <v>2200</v>
       </c>
-      <c r="T23" s="89">
+      <c r="T23" s="121">
         <v>3500</v>
       </c>
-      <c r="U23" s="96">
+      <c r="U23" s="124">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="87" t="s">
+    <row r="24" spans="1:21" s="125" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="120">
         <v>2025</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="121">
         <v>1200</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="120">
         <v>0.93</v>
       </c>
-      <c r="E24" s="91">
+      <c r="E24" s="121">
         <v>0.53</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="120">
         <v>25</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G24" s="121">
         <v>10</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="121">
         <v>10</v>
       </c>
-      <c r="I24" s="89">
+      <c r="I24" s="121">
         <v>20</v>
       </c>
-      <c r="J24" s="93">
-        <v>2</v>
-      </c>
-      <c r="K24" s="94">
+      <c r="J24" s="120">
+        <v>2</v>
+      </c>
+      <c r="K24" s="122">
         <v>400</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="121">
         <v>600</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M24" s="123">
         <v>700</v>
       </c>
-      <c r="N24" s="89">
+      <c r="N24" s="121">
         <v>3</v>
       </c>
-      <c r="O24" s="91">
+      <c r="O24" s="121">
         <f>N24+J24</f>
         <v>5</v>
       </c>
-      <c r="P24" s="89">
+      <c r="P24" s="121">
         <v>16100</v>
       </c>
-      <c r="Q24" s="93">
+      <c r="Q24" s="120">
         <v>13100</v>
       </c>
-      <c r="R24" s="89">
+      <c r="R24" s="121">
         <v>4</v>
       </c>
-      <c r="S24" s="93">
+      <c r="S24" s="120">
         <v>2200</v>
       </c>
-      <c r="T24" s="89">
+      <c r="T24" s="121">
         <v>3500</v>
       </c>
-      <c r="U24" s="96">
+      <c r="U24" s="124">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="87" t="s">
+    <row r="25" spans="1:21" s="125" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="88">
+      <c r="B25" s="120">
         <v>2025</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="121">
         <v>1200</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="120">
         <v>0.93</v>
       </c>
-      <c r="E25" s="91">
+      <c r="E25" s="121">
         <v>0.53</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="120">
         <v>25</v>
       </c>
-      <c r="G25" s="89">
+      <c r="G25" s="121">
         <v>10</v>
       </c>
-      <c r="H25" s="89">
+      <c r="H25" s="121">
         <v>10</v>
       </c>
-      <c r="I25" s="89">
+      <c r="I25" s="121">
         <v>20</v>
       </c>
-      <c r="J25" s="93">
-        <v>2</v>
-      </c>
-      <c r="K25" s="94">
+      <c r="J25" s="120">
+        <v>2</v>
+      </c>
+      <c r="K25" s="122">
         <v>400</v>
       </c>
-      <c r="L25" s="89">
+      <c r="L25" s="121">
         <v>600</v>
       </c>
-      <c r="M25" s="95">
+      <c r="M25" s="123">
         <v>700</v>
       </c>
-      <c r="N25" s="89">
+      <c r="N25" s="121">
         <v>3</v>
       </c>
-      <c r="O25" s="91">
+      <c r="O25" s="121">
         <f>N25+J25</f>
         <v>5</v>
       </c>
-      <c r="P25" s="89">
+      <c r="P25" s="121">
         <v>16100</v>
       </c>
-      <c r="Q25" s="93">
+      <c r="Q25" s="120">
         <v>13100</v>
       </c>
-      <c r="R25" s="89">
+      <c r="R25" s="121">
         <v>4</v>
       </c>
-      <c r="S25" s="93">
+      <c r="S25" s="120">
         <v>2200</v>
       </c>
-      <c r="T25" s="89">
+      <c r="T25" s="121">
         <v>3500</v>
       </c>
-      <c r="U25" s="96">
+      <c r="U25" s="124">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
